--- a/data/trans_dic/P32B-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P32B-Provincia-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P32B-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P32B-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,7 +656,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,96%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -666,17 +666,17 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,47%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,75%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,97%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -686,17 +686,17 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,44%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,19%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,3%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -706,12 +706,12 @@
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,34%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,84%</t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,3</t>
+          <t>0,62; 5,28</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,16</t>
+          <t>3,83; 12,9</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,04</t>
+          <t>0,8; 7,21</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,7</t>
+          <t>0,0; 9,09</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,83</t>
+          <t>1,66; 9,59</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,17</t>
+          <t>0,0; 1,16</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,88</t>
+          <t>0,87; 5,18</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>3,96; 10,13</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,55</t>
+          <t>0,53; 5,04</t>
         </is>
       </c>
     </row>
@@ -796,12 +796,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,67%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,92%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,1%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -836,12 +836,12 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,27%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,96%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,73%</t>
         </is>
       </c>
     </row>
@@ -864,12 +864,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,87</t>
+          <t>0,39; 3,9</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,66</t>
+          <t>1,27; 5,78</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,07</t>
+          <t>0,0; 5,43</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -904,12 +904,12 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,66</t>
+          <t>0,33; 3,09</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>0,84; 4,0</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,59</t>
+          <t>0,0; 3,72</t>
         </is>
       </c>
     </row>
@@ -946,12 +946,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,42%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,28%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -961,7 +961,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,79%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,87%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -981,17 +981,17 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,3%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,26%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,47%</t>
         </is>
       </c>
     </row>
@@ -1014,12 +1014,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,9</t>
+          <t>0,0; 2,32</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,9</t>
+          <t>2,0; 7,96</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1029,7 +1029,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,67</t>
+          <t>0,0; 4,03</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,52</t>
+          <t>0,34; 4,81</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1049,17 +1049,17 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,6</t>
+          <t>0,0; 1,48</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>0,0; 1,32</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>2,14; 6,05</t>
         </is>
       </c>
     </row>
@@ -1076,32 +1076,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,47%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,26%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,96%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,93%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,9%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,02%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1111,27 +1111,27 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,72%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,27%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,78%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,58%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,84%</t>
         </is>
       </c>
     </row>
@@ -1144,32 +1144,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,8</t>
+          <t>0,41; 3,98</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,56</t>
+          <t>3,27; 8,6</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,87</t>
+          <t>0,0; 3,05</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,19</t>
+          <t>0,0; 3,43</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,43</t>
+          <t>0,0; 4,48</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,07</t>
+          <t>0,0; 3,47</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,27 +1179,27 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,06</t>
+          <t>0,0; 2,67</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,52</t>
+          <t>0,4; 3,22</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>2,4; 5,77</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>0,0; 2,23</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,56</t>
+          <t>0,29; 2,08</t>
         </is>
       </c>
     </row>
@@ -1216,17 +1216,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,92%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,05%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,99%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1251,27 +1251,27 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,91%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,62%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,85%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,83%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,09%</t>
         </is>
       </c>
     </row>
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,94</t>
+          <t>0,0; 4,24</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,61</t>
+          <t>1,51; 8,84</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,08</t>
+          <t>0,97; 9,35</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1319,27 +1319,27 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 9,49</t>
+          <t>0,0; 23,99</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,34</t>
+          <t>0,0; 3,09</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,13</t>
+          <t>1,1; 6,58</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,45</t>
+          <t>0,72; 7,1</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,9</t>
+          <t>0,0; 5,62</t>
         </is>
       </c>
     </row>
@@ -1356,27 +1356,27 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,34%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,57%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,03%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,26%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,69%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1386,32 +1386,32 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,32%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,84%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,38%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,62%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,28%</t>
         </is>
       </c>
     </row>
@@ -1424,27 +1424,27 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,02</t>
+          <t>0,0; 5,08</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,08</t>
+          <t>0,0; 2,89</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,03</t>
+          <t>0,53; 5,18</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,91</t>
+          <t>0,73; 5,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,76</t>
+          <t>0,72; 7,13</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1454,32 +1454,32 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,81</t>
+          <t>0,0; 4,24</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,29</t>
+          <t>0,56; 6,56</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,65</t>
+          <t>0,62; 4,26</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,72</t>
+          <t>0,0; 1,92</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,66</t>
+          <t>0,64; 3,6</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>1,05; 4,54</t>
         </is>
       </c>
     </row>
@@ -1501,17 +1501,17 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,72%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,33%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,19%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1521,17 +1521,17 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,5%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,41%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,35%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1541,17 +1541,17 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,94%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,96%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,27%</t>
         </is>
       </c>
     </row>
@@ -1569,17 +1569,17 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>2,04; 6,34</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>1,69; 5,98</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,66</t>
+          <t>1,0; 4,42</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1589,17 +1589,17 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,98</t>
+          <t>0,44; 4,32</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,8</t>
+          <t>0,84; 5,25</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,67</t>
+          <t>0,49; 5,82</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1609,17 +1609,17 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>1,75; 4,98</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>1,8; 4,68</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>1,11; 4,23</t>
         </is>
       </c>
     </row>
@@ -1636,32 +1636,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,34%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,01%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,23%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,93%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,24%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,47%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1671,27 +1671,27 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,34%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,63%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,52%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,78%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,04%</t>
         </is>
       </c>
     </row>
@@ -1704,32 +1704,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>0,0; 1,03</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,46</t>
+          <t>0,9; 3,52</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>0,42; 3,13</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,63</t>
+          <t>0,23; 2,52</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,83</t>
+          <t>0,39; 3,37</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,97</t>
+          <t>0,0; 2,33</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1739,27 +1739,27 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0; 1,4</t>
+          <t>0,0; 4,66</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>0,23; 1,37</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>0,76; 2,65</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>0,27; 1,71</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>0,36; 2,4</t>
         </is>
       </c>
     </row>
@@ -1776,62 +1776,62 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,82%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,86%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,11%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,88%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,04%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,69%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,03%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,5%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,12%</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,74%</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>0,45; 1,3</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>2,06; 3,71</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>1,56; 2,88</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>1,3; 2,73</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>0,55; 1,97</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>0,3; 1,41</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>0,54; 1,77</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>0,82; 2,66</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>0,6; 1,31</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>1,62; 2,73</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>1,3; 2,21</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>1,25; 2,41</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P32B-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P32B-Provincia-trans_dic.xlsx
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,46%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,75%</t>
+          <t>3,09%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,84%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,19%</t>
+          <t>0,18%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,14%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>1,84%</t>
+          <t>2,12%</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,34; 15,82</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,8; 7,21</t>
+          <t>0,86; 8,29</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 6,72</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,16</t>
+          <t>0,0; 1,14</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,46; 10,54</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,53; 5,04</t>
+          <t>0,59; 5,88</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,1%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,73%</t>
+          <t>0,85%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,43</t>
+          <t>0,0; 6,14</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,72</t>
+          <t>0,0; 4,32</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,28%</t>
+          <t>4,24%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,87%</t>
+          <t>1,86%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>3,47%</t>
+          <t>3,46%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,0; 7,96</t>
+          <t>1,96; 7,93</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,34; 4,81</t>
+          <t>0,45; 4,8</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,14; 6,05</t>
+          <t>2,11; 6,08</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,26%</t>
+          <t>0,48%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,93%</t>
+          <t>0,91%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,02%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,72%</t>
+          <t>0,73%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>3,78%</t>
+          <t>0,33%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,84%</t>
+          <t>0,83%</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,27; 8,6</t>
+          <t>0,0; 2,41</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,43</t>
+          <t>0,0; 3,33</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,47</t>
+          <t>0; 2,28</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,67</t>
+          <t>0,0; 2,7</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,4; 5,77</t>
+          <t>0,0; 1,89</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,29; 2,08</t>
+          <t>0,29; 2,09</t>
         </is>
       </c>
     </row>
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>4,91%</t>
+          <t>5,13%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>1,09%</t>
+          <t>1,11%</t>
         </is>
       </c>
     </row>
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,99</t>
+          <t>0,0; 24,81</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,62</t>
+          <t>0,0; 5,7</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2,26%</t>
+          <t>2,21%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>2,32%</t>
+          <t>2,3%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>2,28%</t>
+          <t>2,25%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,73; 5,0</t>
+          <t>0,7; 4,89</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,56; 6,56</t>
+          <t>0,55; 6,49</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>1,05; 4,54</t>
+          <t>1,04; 4,49</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2,19%</t>
+          <t>2,11%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>2,35%</t>
+          <t>1,68%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>2,27%</t>
+          <t>1,87%</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,0; 4,42</t>
+          <t>0,96; 4,26</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,49; 5,82</t>
+          <t>0,13; 4,71</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>1,11; 4,23</t>
+          <t>0,73; 3,5</t>
         </is>
       </c>
     </row>
@@ -1671,7 +1671,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>1,34%</t>
+          <t>1,4%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>1,04%</t>
+          <t>1,06%</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,23; 2,52</t>
+          <t>0,24; 2,52</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,66</t>
+          <t>0,0; 4,85</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0,36; 2,4</t>
+          <t>0,36; 2,43</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>1,88%</t>
+          <t>1,96%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>1,5%</t>
+          <t>1,32%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>1,74%</t>
+          <t>1,71%</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,3; 2,73</t>
+          <t>1,32; 2,93</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0,82; 2,66</t>
+          <t>0,62; 2,31</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>1,25; 2,41</t>
+          <t>1,17; 2,36</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P32B-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P32B-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +725,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,62; 5,28</t>
+          <t>0,04; 5,27</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,34; 15,82</t>
+          <t>6,12; 16,09</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,83; 12,9</t>
+          <t>4,09; 12,25</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,86; 8,29</t>
+          <t>0,83; 8,52</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,09</t>
+          <t>0,0; 10,77</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,72</t>
+          <t>0,0; 6,82</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,66; 9,59</t>
+          <t>1,69; 9,84</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,14</t>
+          <t>0,0; 0,76</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,87; 5,18</t>
+          <t>0,88; 5,08</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>4,46; 10,54</t>
+          <t>4,1; 10,64</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>3,96; 10,13</t>
+          <t>3,85; 10,44</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,59; 5,88</t>
+          <t>0,59; 6,04</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,12 +865,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,39; 3,9</t>
+          <t>0,41; 3,86</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,27; 5,78</t>
+          <t>1,26; 6,24</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -879,7 +880,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,14</t>
+          <t>0,0; 7,38</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -904,12 +905,12 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,33; 3,09</t>
+          <t>0,33; 3,14</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,84; 4,0</t>
+          <t>0,83; 3,88</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
@@ -926,7 +927,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1014,12 +1015,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,32</t>
+          <t>0,0; 2,43</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,96; 7,93</t>
+          <t>2,18; 8,53</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1029,7 +1030,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,03</t>
+          <t>0,0; 3,95</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1039,7 +1040,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,45; 4,8</t>
+          <t>0,49; 4,93</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1049,17 +1050,17 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,48</t>
+          <t>0,0; 1,7</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,32</t>
+          <t>0,0; 1,33</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,11; 6,08</t>
+          <t>1,85; 6,07</t>
         </is>
       </c>
     </row>
@@ -1144,27 +1145,27 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,41; 3,98</t>
+          <t>0,41; 4,1</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,41</t>
+          <t>0,0; 2,27</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,05</t>
+          <t>0,0; 3,45</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,33</t>
+          <t>0,0; 2,8</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,48</t>
+          <t>0,0; 4,53</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1179,27 +1180,27 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,7</t>
+          <t>0,0; 2,66</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,4; 3,22</t>
+          <t>0,32; 2,91</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,89</t>
+          <t>0,0; 1,7</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,23</t>
+          <t>0,0; 1,77</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,29; 2,09</t>
+          <t>0,25; 2,24</t>
         </is>
       </c>
     </row>
@@ -1284,17 +1285,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,24</t>
+          <t>0,0; 4,66</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,51; 8,84</t>
+          <t>1,5; 8,93</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,97; 9,35</t>
+          <t>0,99; 9,3</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1319,34 +1320,34 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,81</t>
+          <t>0,0; 27,67</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,09</t>
+          <t>0,0; 3,65</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1,1; 6,58</t>
+          <t>1,03; 5,94</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,72; 7,1</t>
+          <t>0,75; 6,77</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,7</t>
+          <t>0,0; 6,13</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,27 +1425,27 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,08</t>
+          <t>0,0; 4,59</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,89</t>
+          <t>0,0; 3,03</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,53; 5,18</t>
+          <t>0,5; 5,07</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,7; 4,89</t>
+          <t>0,85; 5,02</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,72; 7,13</t>
+          <t>0,85; 7,19</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1454,39 +1455,39 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,24</t>
+          <t>0,0; 3,63</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,55; 6,49</t>
+          <t>0,55; 6,04</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,62; 4,26</t>
+          <t>0,59; 3,91</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,92</t>
+          <t>0,0; 1,91</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0,64; 3,6</t>
+          <t>0,62; 3,36</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>1,04; 4,49</t>
+          <t>1,08; 4,39</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1569,17 +1570,17 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,04; 6,34</t>
+          <t>2,09; 6,56</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,69; 5,98</t>
+          <t>1,71; 6,09</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,96; 4,26</t>
+          <t>0,99; 4,35</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1589,17 +1590,17 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,44; 4,32</t>
+          <t>0,44; 4,01</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,84; 5,25</t>
+          <t>0,81; 5,29</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,13; 4,71</t>
+          <t>0,13; 4,66</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1609,17 +1610,17 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>1,75; 4,98</t>
+          <t>1,72; 4,99</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>1,8; 4,68</t>
+          <t>1,73; 4,7</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0,73; 3,5</t>
+          <t>0,7; 3,64</t>
         </is>
       </c>
     </row>
@@ -1704,32 +1705,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,03</t>
+          <t>0,0; 1,2</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,9; 3,52</t>
+          <t>0,93; 3,52</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,42; 3,13</t>
+          <t>0,41; 2,81</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,24; 2,52</t>
+          <t>0,23; 2,65</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,39; 3,37</t>
+          <t>0,39; 3,4</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,33</t>
+          <t>0,0; 2,54</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1739,27 +1740,27 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,85</t>
+          <t>0,0; 5,7</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0,23; 1,37</t>
+          <t>0,23; 1,3</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>0,76; 2,65</t>
+          <t>0,74; 2,69</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>0,27; 1,71</t>
+          <t>0,26; 1,89</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0,36; 2,43</t>
+          <t>0,38; 2,43</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,45; 1,3</t>
+          <t>0,45; 1,32</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>2,06; 3,71</t>
+          <t>2,13; 3,65</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,56; 2,88</t>
+          <t>1,53; 2,86</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,32; 2,93</t>
+          <t>1,32; 2,92</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,55; 1,97</t>
+          <t>0,45; 1,82</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,3; 1,41</t>
+          <t>0,29; 1,38</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,54; 1,77</t>
+          <t>0,52; 1,68</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0,62; 2,31</t>
+          <t>0,68; 2,4</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0,6; 1,31</t>
+          <t>0,58; 1,28</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>1,62; 2,73</t>
+          <t>1,65; 2,73</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>1,3; 2,21</t>
+          <t>1,27; 2,26</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>1,17; 2,36</t>
+          <t>1,15; 2,35</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se ha sentido mal o culpable por su forma de beber</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>2860</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>18335</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>13342</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>5567</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>2181</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>4712</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>5041</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>20348</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>18054</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>5734</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>63; 7709</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>10739; 28209</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>7307; 21885</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>1492; 15319</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 7912</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 7486</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>1799; 10443</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 694</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>1933; 11160</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>11678; 30323</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>10963; 29726</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>1608; 16331</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>3823</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>9049</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>3174</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>3823</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>9049</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>3174</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>931; 8835</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>3915; 19348</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2007</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 18770</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1909</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2073</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2000</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1526</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>1009; 9482</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>3850; 17907</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2012</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>0; 16047</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>865</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>7853</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>986</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>1683</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>986</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>865</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>9536</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1948</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1895</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4988</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>4042; 15795</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1872</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4925</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1850</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>438; 4446</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1932</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5563</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4352</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>5109; 16731</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>3493</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>924</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>2225</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>1613</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>1173</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>902</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>4666</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>924</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>2225</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>2515</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>972; 9765</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0; 4339</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>0; 8027</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>0; 4965</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0; 5931</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1992</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2064</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>0; 3306</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1172; 10748</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>0; 4739</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>0; 6812</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>761; 6755</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>895</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>5193</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>3640</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>440</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>895</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>5193</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>3640</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>440</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 4511</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1929; 11446</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>905; 8480</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1267</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2009</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1990</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1746</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2375</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0; 5266</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>1876; 10822</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>963; 8709</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2437</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>2612</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>1054</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>3844</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>3655</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>3005</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>941</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>2216</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>5617</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>1054</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>4785</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>5871</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 8915</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 5577</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>951; 9581</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>1405; 8287</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>947; 8040</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1962</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>0; 3838</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>526; 5825</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>1815; 11976</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>0; 5307</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>1815; 9907</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>2813; 11478</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>14777</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>12708</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>6506</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>3211</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>6103</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>6726</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>17988</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>18811</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>13232</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1960</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>8294; 26074</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>6525; 23246</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>3035; 13409</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1923</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>941; 8555</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>2061; 13417</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>538; 18610</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1954</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>10491; 30464</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>10985; 29885</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>4956; 25782</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>1659</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>9130</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>5611</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>2580</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>2973</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>996</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>1392</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>4632</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>10126</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>5611</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>3971</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>0; 5890</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>4221; 15965</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>1855; 12841</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>648; 7338</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>931; 8153</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>0; 5438</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>0; 2078</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>0; 5648</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>1657; 9551</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>4928; 17949</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>1852; 13617</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>1409; 9126</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>15343</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>58462</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>42235</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>30947</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>9331</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>7207</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>11756</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>13525</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>24674</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>65668</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>53991</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>44472</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>8534; 24749</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>43502; 74590</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>30624; 57266</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>20826; 46118</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>4061; 16261</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>3043; 14437</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>5964; 19275</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>6984; 24659</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>15956; 35383</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>50990; 84477</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>39831; 71195</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>29953; 61236</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>